--- a/data/math/math-91.xlsx
+++ b/data/math/math-91.xlsx
@@ -464,10 +464,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (double)numerator / (double)denominator;
+</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>0.03846</t>
@@ -488,10 +493,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>604</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                t /= 2; // cast out twos
+</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>0.02439</t>
@@ -512,10 +522,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    private static final long[] factorials = new long[] 
+</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -536,10 +551,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        int u = p;
+</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -560,10 +580,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        int v = q;
+</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -584,10 +609,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if ((u == 0) || (v == 0)) {
+</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -608,10 +638,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if ((u == Integer.MIN_VALUE) || (v == Integer.MIN_VALUE)) {
+</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -632,10 +667,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>569</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return (Math.abs(u) + Math.abs(v));
+</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -656,10 +696,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (u &gt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -680,10 +725,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>577</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            u = -u;
+</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -704,10 +754,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (v &gt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -728,10 +783,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            v = -v;
+</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -752,10 +812,15 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        int k = 0;
+</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -776,10 +841,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        while ((u &amp; 1) == 0 &amp;&amp; (v &amp; 1) == 0 &amp;&amp; k &lt; 31) { // while u and v are
+</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -800,10 +870,15 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (k == 31) {
+</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -824,10 +899,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        int t = ((u &amp; 1) == 1) ? v : -(u / 2)/* B3 */;
+</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -848,10 +928,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            while ((t &amp; 1) == 0) { // while t is even..
+</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -872,10 +957,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>607</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (t &gt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -896,10 +986,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                u = -t;
+</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -920,10 +1015,15 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                v = t;
+</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -944,10 +1044,15 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            t = (v - u) / 2;
+</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -968,10 +1073,15 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>616</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        } while (t != 0);
+</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -992,10 +1102,15 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return -u * (1 &lt;&lt; k); // gcd is u*2^k
+</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -1016,10 +1131,15 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        super();
+</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -1040,10 +1160,15 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (den == 0) {
+</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -1064,10 +1189,15 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (den &lt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -1088,10 +1218,15 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        int d = MathUtils.gcd(num, den);
+</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -1112,10 +1247,15 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (d &gt; 1) {
+</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -1136,10 +1276,15 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (den &lt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -1160,10 +1305,15 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this.numerator = num;
+</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -1184,10 +1334,15 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this.denominator = den;
+</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -1208,10 +1363,15 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -1235,7 +1395,12 @@
           <t>33</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    public static final Fraction TWO = new Fraction(2, 1);
+</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -1256,10 +1421,15 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    public static final Fraction ONE = new Fraction(1, 1);
+</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -1280,10 +1450,15 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    public static final Fraction ZERO = new Fraction(0, 1);
+</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -1304,10 +1479,15 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    public static final Fraction MINUS_ONE = new Fraction(-1, 1);
+</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>0.01818</t>
@@ -1328,10 +1508,15 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        super();
+</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1352,10 +1537,15 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1376,10 +1566,15 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        long s = (long)x + (long)y;
+</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1400,10 +1595,15 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (s &lt; Integer.MIN_VALUE || s &gt; Integer.MAX_VALUE) {
+</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1424,10 +1624,15 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new ArithmeticException("overflow: add");
+</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1448,10 +1653,15 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (int)s;
+</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1472,10 +1682,15 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return addAndCheck(a, b, "overflow: add");
+</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1496,10 +1711,15 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (a &gt; b) {
+</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1520,10 +1740,15 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ret = addAndCheck(b, a, msg);
+</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1544,10 +1769,15 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (a &lt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1568,10 +1798,15 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                if (b &lt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1592,10 +1827,15 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    if (Long.MIN_VALUE - b &lt;= a) {
+</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1616,10 +1856,15 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        ret = a + b;
+</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1640,10 +1885,15 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        throw new ArithmeticException(msg);
+</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1664,10 +1914,15 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    ret = a + b;
+</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1688,10 +1943,15 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                if (a &lt;= Long.MAX_VALUE - b) {
+</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1712,10 +1972,15 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    ret = a + b;
+</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1736,10 +2001,15 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    throw new ArithmeticException(msg);
+</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1760,10 +2030,15 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return ret;
+</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1784,10 +2059,15 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (n &lt; k) {
+</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1808,10 +2088,15 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new IllegalArgumentException(
+</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1832,10 +2117,15 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (n &lt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1856,10 +2146,15 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new IllegalArgumentException(
+</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1880,10 +2175,15 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if ((n == k) || (k == 0)) {
+</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1904,10 +2204,15 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return 1;
+</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1928,10 +2233,15 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if ((k == 1) || (k == n - 1)) {
+</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1952,10 +2262,15 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return n;
+</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1976,10 +2291,15 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (k &gt; n / 2)
+</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2000,10 +2320,15 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return binomialCoefficient(n, n - k);
+</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2024,10 +2349,15 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        long result = 1;
+</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2048,10 +2378,15 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (n &lt;= 61) {
+</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2072,10 +2407,15 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            for (int j = 1, i = n - k + 1; j &lt;= k; i++, j++) {
+</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2096,10 +2436,15 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                result = result * i / j;
+</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2120,10 +2465,15 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        } else if (n &lt;= 66) {
+</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2144,10 +2494,15 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            for (int j = 1, i = n - k + 1; j &lt;= k; i++, j++) {
+</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2168,10 +2523,15 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                long d = gcd(i, j);
+</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2192,10 +2552,15 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                result = (result / (j / d)) * (i / d);
+</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2216,10 +2581,15 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            for (int j = 1, i = n - k + 1; j &lt;= k; i++, j++) {
+</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2240,10 +2610,15 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                long d = gcd(i, j);
+</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2264,10 +2639,15 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                result = mulAndCheck((result / (j / d)), (i / d));
+</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2288,10 +2668,15 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return result;
+</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2312,10 +2697,15 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (n &lt; k) {
+</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2336,10 +2726,15 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new IllegalArgumentException(
+</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2360,10 +2755,15 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (n &lt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2384,10 +2784,15 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new IllegalArgumentException(
+</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2408,10 +2813,15 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if ((n == k) || (k == 0)) {
+</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2432,10 +2842,15 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return 1d;
+</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2456,10 +2871,15 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if ((k == 1) || (k == n - 1)) {
+</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2480,10 +2900,15 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return n;
+</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2504,10 +2929,15 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (k &gt; n/2) {
+</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2528,10 +2958,15 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return binomialCoefficientDouble(n, n - k);
+</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2552,10 +2987,15 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (n &lt; 67) {
+</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2576,10 +3016,15 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return binomialCoefficient(n,k);
+</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2600,10 +3045,15 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double result = 1d;
+</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2624,10 +3074,15 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        for (int i = 1; i &lt;= k; i++) {
+</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2648,10 +3103,15 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">             result *= (double)(n - k + i) / (double)i;
+</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2672,10 +3132,15 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return Math.floor(result + 0.5);
+</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2696,10 +3161,15 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (n &lt; k) {
+</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2720,10 +3190,15 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new IllegalArgumentException(
+</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2744,10 +3219,15 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (n &lt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2768,10 +3248,15 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new IllegalArgumentException(
+</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2792,10 +3277,15 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if ((n == k) || (k == 0)) {
+</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2816,10 +3306,15 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return 0;
+</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2840,10 +3335,15 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if ((k == 1) || (k == n - 1)) {
+</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2864,10 +3364,15 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Math.log((double) n);
+</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2888,10 +3393,15 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (n &lt; 67) {  
+</t>
+        </is>
+      </c>
       <c r="E103" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2912,10 +3422,15 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Math.log(binomialCoefficient(n,k));
+</t>
+        </is>
+      </c>
       <c r="E104" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2936,10 +3451,15 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (n &lt; 1030) { 
+</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2960,10 +3480,15 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Math.log(binomialCoefficientDouble(n, k));
+</t>
+        </is>
+      </c>
       <c r="E106" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2984,10 +3509,15 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (k &gt; n / 2) {
+</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3008,10 +3538,15 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>107</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return binomialCoefficientLog(n, n - k);
+</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3032,10 +3567,15 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double logSum = 0;
+</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3056,10 +3596,15 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        for (int i = n - k + 1; i &lt;= n; i++) {
+</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3080,10 +3625,15 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            logSum += Math.log((double) i);
+</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3104,10 +3654,15 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        for (int i = 2; i &lt;= k; i++) {
+</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3128,10 +3683,15 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            logSum -= Math.log((double) i);
+</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3152,10 +3712,15 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>113</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return logSum;      
+</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3176,10 +3741,15 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (equals(x, y, eps)) {
+</t>
+        </is>
+      </c>
       <c r="E115" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3200,10 +3770,15 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return 0;
+</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3224,10 +3799,15 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        } else if (x &lt; y) {
+</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3248,10 +3828,15 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          return -1;
+</t>
+        </is>
+      </c>
       <c r="E118" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3272,10 +3857,15 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return 1;
+</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3296,10 +3886,15 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>119</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (Math.exp(x) + Math.exp(-x)) / 2.0;
+</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3320,10 +3915,15 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return ((Double.isNaN(x) &amp;&amp; Double.isNaN(y)) || x == y);
+</t>
+        </is>
+      </c>
       <c r="E121" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3344,10 +3944,15 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      return equals(x, y) || (Math.abs(y - x) &lt;= eps);
+</t>
+        </is>
+      </c>
       <c r="E122" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3368,10 +3973,15 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if ((x == null) || (y == null)) {
+</t>
+        </is>
+      </c>
       <c r="E123" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3392,10 +4002,15 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return !((x == null) ^ (y == null));
+</t>
+        </is>
+      </c>
       <c r="E124" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3416,10 +4031,15 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr"/>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (x.length != y.length) {
+</t>
+        </is>
+      </c>
       <c r="E125" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3440,10 +4060,15 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return false;
+</t>
+        </is>
+      </c>
       <c r="E126" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3464,10 +4089,15 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        for (int i = 0; i &lt; x.length; ++i) {
+</t>
+        </is>
+      </c>
       <c r="E127" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3488,10 +4118,15 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (!equals(x[i], y[i])) {
+</t>
+        </is>
+      </c>
       <c r="E128" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3512,10 +4147,15 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>128</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return false;
+</t>
+        </is>
+      </c>
       <c r="E129" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3536,10 +4176,15 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>129</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return true;
+</t>
+        </is>
+      </c>
       <c r="E130" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3560,10 +4205,15 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (n &lt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E131" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3584,10 +4234,15 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new IllegalArgumentException("must have n &gt;= 0 for n!");
+</t>
+        </is>
+      </c>
       <c r="E132" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3608,10 +4263,15 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (n &gt; 20) {
+</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3632,10 +4292,15 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new ArithmeticException(
+</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3656,10 +4321,15 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return factorials[n];
+</t>
+        </is>
+      </c>
       <c r="E135" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3680,10 +4350,15 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (n &lt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E136" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3704,10 +4379,15 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new IllegalArgumentException("must have n &gt;= 0 for n!");
+</t>
+        </is>
+      </c>
       <c r="E137" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3728,10 +4408,15 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
+          <t>497</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (n &lt; 21) {
+</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3752,10 +4437,15 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>138</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return factorial(n);
+</t>
+        </is>
+      </c>
       <c r="E139" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3776,10 +4466,15 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>139</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return Math.floor(Math.exp(factorialLog(n)) + 0.5);
+</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3800,10 +4495,15 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (n &lt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E141" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3824,10 +4524,15 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr"/>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new IllegalArgumentException("must have n &gt; 0 for n!");
+</t>
+        </is>
+      </c>
       <c r="E142" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3848,10 +4553,15 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (n &lt; 21) {
+</t>
+        </is>
+      </c>
       <c r="E143" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3872,10 +4582,15 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Math.log(factorial(n));
+</t>
+        </is>
+      </c>
       <c r="E144" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3896,10 +4611,15 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>144</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr"/>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double logSum = 0;
+</t>
+        </is>
+      </c>
       <c r="E145" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3920,10 +4640,15 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr"/>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        for (int i = 2; i &lt;= n; i++) {
+</t>
+        </is>
+      </c>
       <c r="E146" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3944,10 +4669,15 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>146</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr"/>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            logSum += Math.log((double)i);
+</t>
+        </is>
+      </c>
       <c r="E147" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3968,10 +4698,15 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>147</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr"/>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return logSum;
+</t>
+        </is>
+      </c>
       <c r="E148" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3992,10 +4727,15 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>148</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr"/>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                throw MathRuntimeException.createArithmeticException(
+</t>
+        </is>
+      </c>
       <c r="E149" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4016,10 +4756,15 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>149</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr"/>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            u /= 2;
+</t>
+        </is>
+      </c>
       <c r="E150" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4040,10 +4785,15 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            v /= 2;
+</t>
+        </is>
+      </c>
       <c r="E151" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4064,10 +4814,15 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr"/>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            k++; // cast out twos.
+</t>
+        </is>
+      </c>
       <c r="E152" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4088,10 +4843,15 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr"/>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw MathRuntimeException.createArithmeticException(
+</t>
+        </is>
+      </c>
       <c r="E153" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4112,10 +4872,15 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>153</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr"/>
+          <t>627</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return new Double(value).hashCode();
+</t>
+        </is>
+      </c>
       <c r="E154" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4136,10 +4901,15 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr"/>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return Arrays.hashCode(value);
+</t>
+        </is>
+      </c>
       <c r="E155" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4160,10 +4930,15 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr"/>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (x &gt;= ZB) ? PB : NB;
+</t>
+        </is>
+      </c>
       <c r="E156" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4184,10 +4959,15 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>156</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr"/>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (Double.isNaN(x)) {
+</t>
+        </is>
+      </c>
       <c r="E157" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4208,10 +4988,15 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr"/>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Double.NaN;
+</t>
+        </is>
+      </c>
       <c r="E158" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4232,10 +5017,15 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>158</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr"/>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (x &gt;= 0.0) ? 1.0 : -1.0;
+</t>
+        </is>
+      </c>
       <c r="E159" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4256,10 +5046,15 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>159</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr"/>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (Float.isNaN(x)) {
+</t>
+        </is>
+      </c>
       <c r="E160" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4280,10 +5075,15 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr"/>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Float.NaN;
+</t>
+        </is>
+      </c>
       <c r="E161" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4304,10 +5104,15 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr"/>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (x &gt;= 0.0F) ? 1.0F : -1.0F;
+</t>
+        </is>
+      </c>
       <c r="E162" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4328,10 +5133,15 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>162</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr"/>
+          <t>688</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (x &gt;= 0) ? 1 : -1;
+</t>
+        </is>
+      </c>
       <c r="E163" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4352,10 +5162,15 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr"/>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (x &gt;= 0L) ? 1L : -1L;
+</t>
+        </is>
+      </c>
       <c r="E164" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4376,10 +5191,15 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr"/>
+          <t>709</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (x &gt;= ZS) ? PS : NS;
+</t>
+        </is>
+      </c>
       <c r="E165" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4400,10 +5220,15 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr"/>
+          <t>736</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (a==0 || b==0){
+</t>
+        </is>
+      </c>
       <c r="E166" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4424,10 +5249,15 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>166</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr"/>
+          <t>737</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return 0;
+</t>
+        </is>
+      </c>
       <c r="E167" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4448,10 +5278,15 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>167</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr"/>
+          <t>739</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        int lcm = Math.abs(mulAndCheck(a / gcd(a, b), b));
+</t>
+        </is>
+      </c>
       <c r="E168" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4472,10 +5307,15 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>168</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr"/>
+          <t>740</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (lcm == Integer.MIN_VALUE){
+</t>
+        </is>
+      </c>
       <c r="E169" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4496,10 +5336,15 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>169</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr"/>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new ArithmeticException("overflow: lcm is 2^31");
+</t>
+        </is>
+      </c>
       <c r="E170" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4520,10 +5365,15 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr"/>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return lcm;
+</t>
+        </is>
+      </c>
       <c r="E171" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4544,10 +5394,15 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr"/>
+          <t>763</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return Math.log(x)/Math.log(base);
+</t>
+        </is>
+      </c>
       <c r="E172" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4568,10 +5423,15 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>172</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr"/>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        long m = ((long)x) * ((long)y);
+</t>
+        </is>
+      </c>
       <c r="E173" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4592,10 +5452,15 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>173</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr"/>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (m &lt; Integer.MIN_VALUE || m &gt; Integer.MAX_VALUE) {
+</t>
+        </is>
+      </c>
       <c r="E174" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4616,10 +5481,15 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>174</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr"/>
+          <t>779</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new ArithmeticException("overflow: mul");
+</t>
+        </is>
+      </c>
       <c r="E175" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4640,10 +5510,15 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr"/>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (int)m;
+</t>
+        </is>
+      </c>
       <c r="E176" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4664,10 +5539,15 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr"/>
+          <t>796</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        String msg = "overflow: multiply";
+</t>
+        </is>
+      </c>
       <c r="E177" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4688,10 +5568,15 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>177</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr"/>
+          <t>797</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (a &gt; b) {
+</t>
+        </is>
+      </c>
       <c r="E178" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4712,10 +5597,15 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>178</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr"/>
+          <t>799</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ret = mulAndCheck(b, a);
+</t>
+        </is>
+      </c>
       <c r="E179" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4736,10 +5626,15 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>179</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr"/>
+          <t>801</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (a &lt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E180" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4760,10 +5655,15 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr"/>
+          <t>802</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                if (b &lt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E181" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4784,10 +5684,15 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>181</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr"/>
+          <t>804</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    if (a &gt;= Long.MAX_VALUE / b) {
+</t>
+        </is>
+      </c>
       <c r="E182" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4808,10 +5713,15 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>182</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr"/>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        ret = a * b;
+</t>
+        </is>
+      </c>
       <c r="E183" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4832,10 +5742,15 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>183</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr"/>
+          <t>807</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        throw new ArithmeticException(msg);
+</t>
+        </is>
+      </c>
       <c r="E184" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4856,10 +5771,15 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr"/>
+          <t>809</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                } else if (b &gt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E185" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4880,10 +5800,15 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>185</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr"/>
+          <t>811</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    if (Long.MIN_VALUE / b &lt;= a) {
+</t>
+        </is>
+      </c>
       <c r="E186" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4904,10 +5829,15 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>186</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr"/>
+          <t>812</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        ret = a * b;
+</t>
+        </is>
+      </c>
       <c r="E187" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4928,10 +5858,15 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>187</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr"/>
+          <t>814</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        throw new ArithmeticException(msg);
+</t>
+        </is>
+      </c>
       <c r="E188" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4952,10 +5887,15 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>188</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr"/>
+          <t>819</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    ret = 0;
+</t>
+        </is>
+      </c>
       <c r="E189" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4976,10 +5916,15 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>189</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr"/>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            } else if (a &gt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E190" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5000,10 +5945,15 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr"/>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                if (a &lt;= Long.MAX_VALUE / b) {
+</t>
+        </is>
+      </c>
       <c r="E191" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5024,10 +5974,15 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>191</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr"/>
+          <t>827</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    ret = a * b;
+</t>
+        </is>
+      </c>
       <c r="E192" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5048,10 +6003,15 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>192</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr"/>
+          <t>829</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    throw new ArithmeticException(msg);
+</t>
+        </is>
+      </c>
       <c r="E193" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5072,10 +6032,15 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>193</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr"/>
+          <t>833</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                ret = 0;
+</t>
+        </is>
+      </c>
       <c r="E194" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5096,10 +6061,15 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>194</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr"/>
+          <t>836</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return ret;
+</t>
+        </is>
+      </c>
       <c r="E195" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5120,10 +6090,15 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr"/>
+          <t>859</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (Double.isNaN(d) || Double.isInfinite(d)) {
+</t>
+        </is>
+      </c>
       <c r="E196" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5144,10 +6119,15 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>196</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr"/>
+          <t>860</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return d;
+</t>
+        </is>
+      </c>
       <c r="E197" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5168,10 +6148,15 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr"/>
+          <t>861</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        } else if (d == 0) {
+</t>
+        </is>
+      </c>
       <c r="E198" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5192,10 +6177,15 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>198</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr"/>
+          <t>862</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return (direction &lt; 0) ? -Double.MIN_VALUE : Double.MIN_VALUE;
+</t>
+        </is>
+      </c>
       <c r="E199" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5216,10 +6206,15 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>199</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr"/>
+          <t>868</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        long bits     = Double.doubleToLongBits(d);
+</t>
+        </is>
+      </c>
       <c r="E200" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5240,10 +6235,15 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr"/>
+          <t>869</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        long sign     = bits &amp; 0x8000000000000000L;
+</t>
+        </is>
+      </c>
       <c r="E201" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5264,10 +6264,15 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>201</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr"/>
+          <t>870</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        long exponent = bits &amp; 0x7ff0000000000000L;
+</t>
+        </is>
+      </c>
       <c r="E202" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5288,10 +6293,15 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>202</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr"/>
+          <t>871</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        long mantissa = bits &amp; 0x000fffffffffffffL;
+</t>
+        </is>
+      </c>
       <c r="E203" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5312,10 +6322,15 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>203</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr"/>
+          <t>873</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (d * (direction - d) &gt;= 0) {
+</t>
+        </is>
+      </c>
       <c r="E204" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5336,10 +6351,15 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr"/>
+          <t>875</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                if (mantissa == 0x000fffffffffffffL) {
+</t>
+        </is>
+      </c>
       <c r="E205" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5360,10 +6380,15 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>205</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr"/>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        return Double.longBitsToDouble(sign |
+</t>
+        </is>
+      </c>
       <c r="E206" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5384,10 +6409,15 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>206</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr"/>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        return Double.longBitsToDouble(sign |
+</t>
+        </is>
+      </c>
       <c r="E207" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5408,10 +6438,15 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>207</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr"/>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                if (mantissa == 0L) {
+</t>
+        </is>
+      </c>
       <c r="E208" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5432,10 +6467,15 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>208</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr"/>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        return Double.longBitsToDouble(sign |
+</t>
+        </is>
+      </c>
       <c r="E209" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5456,10 +6496,15 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr"/>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        return Double.longBitsToDouble(sign |
+</t>
+        </is>
+      </c>
       <c r="E210" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5480,10 +6525,15 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr"/>
+          <t>908</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if ((d == 0) || Double.isNaN(d) || Double.isInfinite(d)) {
+</t>
+        </is>
+      </c>
       <c r="E211" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5504,10 +6554,15 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr"/>
+          <t>909</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return d;
+</t>
+        </is>
+      </c>
       <c r="E212" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5528,10 +6583,15 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>212</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr"/>
+          <t>913</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        final long bits     = Double.doubleToLongBits(d);
+</t>
+        </is>
+      </c>
       <c r="E213" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5552,10 +6612,15 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>213</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr"/>
+          <t>914</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        final long exponent = bits &amp; 0x7ff0000000000000L;
+</t>
+        </is>
+      </c>
       <c r="E214" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5576,10 +6641,15 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>214</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr"/>
+          <t>915</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        final long rest     = bits &amp; 0x800fffffffffffffL;
+</t>
+        </is>
+      </c>
       <c r="E215" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5600,10 +6670,15 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>215</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr"/>
+          <t>918</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        final long newBits = rest | (exponent + (((long) scaleFactor) &lt;&lt; 52));
+</t>
+        </is>
+      </c>
       <c r="E216" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5624,10 +6699,15 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>216</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr"/>
+          <t>919</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return Double.longBitsToDouble(newBits);
+</t>
+        </is>
+      </c>
       <c r="E217" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5648,10 +6728,15 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr"/>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         return a - TWO_PI * Math.floor((a + Math.PI - center) / TWO_PI);
+</t>
+        </is>
+      </c>
       <c r="E218" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5672,10 +6757,15 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>218</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr"/>
+          <t>956</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return round(x, scale, BigDecimal.ROUND_HALF_UP);
+</t>
+        </is>
+      </c>
       <c r="E219" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5696,10 +6786,15 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>219</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr"/>
+          <t>973</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return (new BigDecimal
+</t>
+        </is>
+      </c>
       <c r="E220" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5720,10 +6815,15 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>220</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr"/>
+          <t>977</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        } catch (NumberFormatException ex) {
+</t>
+        </is>
+      </c>
       <c r="E221" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5744,10 +6844,15 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>221</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr"/>
+          <t>978</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (Double.isInfinite(x)) {
+</t>
+        </is>
+      </c>
       <c r="E222" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5768,10 +6873,15 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr"/>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return x;          
+</t>
+        </is>
+      </c>
       <c r="E223" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5792,10 +6902,15 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>223</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr"/>
+          <t>981</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return Double.NaN;
+</t>
+        </is>
+      </c>
       <c r="E224" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5816,10 +6931,15 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr"/>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return round(x, scale, BigDecimal.ROUND_HALF_UP);
+</t>
+        </is>
+      </c>
       <c r="E225" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5840,10 +6960,15 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>225</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr"/>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        float sign = indicator(x);
+</t>
+        </is>
+      </c>
       <c r="E226" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5864,10 +6989,15 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>226</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr"/>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        float factor = (float)Math.pow(10.0f, scale) * sign;
+</t>
+        </is>
+      </c>
       <c r="E227" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5888,10 +7018,15 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>227</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr"/>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (float)roundUnscaled(x * factor, sign, roundingMethod) / factor;
+</t>
+        </is>
+      </c>
       <c r="E228" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5912,10 +7047,15 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>228</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr"/>
+          <t>1031</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        switch (roundingMethod) {
+</t>
+        </is>
+      </c>
       <c r="E229" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5936,10 +7076,15 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>229</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr"/>
+          <t>1033</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (sign == -1) {
+</t>
+        </is>
+      </c>
       <c r="E230" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5960,10 +7105,15 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>230</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr"/>
+          <t>1034</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                unscaled = Math.floor(nextAfter(unscaled, Double.NEGATIVE_INFINITY));
+</t>
+        </is>
+      </c>
       <c r="E231" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5984,10 +7134,15 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr"/>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                unscaled = Math.ceil(nextAfter(unscaled, Double.POSITIVE_INFINITY));
+</t>
+        </is>
+      </c>
       <c r="E232" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6008,10 +7163,15 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr"/>
+          <t>1038</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            break;
+</t>
+        </is>
+      </c>
       <c r="E233" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6032,10 +7192,15 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>233</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr"/>
+          <t>1040</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            unscaled = Math.floor(nextAfter(unscaled, Double.NEGATIVE_INFINITY));
+</t>
+        </is>
+      </c>
       <c r="E234" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6056,10 +7221,15 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr"/>
+          <t>1041</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            break;
+</t>
+        </is>
+      </c>
       <c r="E235" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6080,10 +7250,15 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>235</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr"/>
+          <t>1043</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (sign == -1) {
+</t>
+        </is>
+      </c>
       <c r="E236" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6104,10 +7279,15 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>236</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr"/>
+          <t>1044</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                unscaled = Math.ceil(nextAfter(unscaled, Double.POSITIVE_INFINITY));
+</t>
+        </is>
+      </c>
       <c r="E237" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6128,10 +7308,15 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>237</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr"/>
+          <t>1046</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                unscaled = Math.floor(nextAfter(unscaled, Double.NEGATIVE_INFINITY));
+</t>
+        </is>
+      </c>
       <c r="E238" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6152,10 +7337,15 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>238</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr"/>
+          <t>1048</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            break;
+</t>
+        </is>
+      </c>
       <c r="E239" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6176,10 +7366,15 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>239</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr"/>
+          <t>1050</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            unscaled = nextAfter(unscaled, Double.NEGATIVE_INFINITY);
+</t>
+        </is>
+      </c>
       <c r="E240" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6200,10 +7395,15 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr"/>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double fraction = unscaled - Math.floor(unscaled);
+</t>
+        </is>
+      </c>
       <c r="E241" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6224,10 +7424,15 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr"/>
+          <t>1052</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (fraction &gt; 0.5) {
+</t>
+        </is>
+      </c>
       <c r="E242" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6248,10 +7453,15 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>242</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr"/>
+          <t>1053</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                unscaled = Math.ceil(unscaled);
+</t>
+        </is>
+      </c>
       <c r="E243" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6272,10 +7482,15 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>243</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr"/>
+          <t>1055</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                unscaled = Math.floor(unscaled);
+</t>
+        </is>
+      </c>
       <c r="E244" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6296,10 +7511,15 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr"/>
+          <t>1057</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            break;
+</t>
+        </is>
+      </c>
       <c r="E245" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6320,10 +7540,15 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr"/>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double fraction = unscaled - Math.floor(unscaled);
+</t>
+        </is>
+      </c>
       <c r="E246" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6344,10 +7569,15 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr"/>
+          <t>1061</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (fraction &gt; 0.5) {
+</t>
+        </is>
+      </c>
       <c r="E247" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6368,10 +7598,15 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr"/>
+          <t>1062</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                unscaled = Math.ceil(unscaled);
+</t>
+        </is>
+      </c>
       <c r="E248" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6392,10 +7627,15 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr"/>
+          <t>1063</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            } else if (fraction &lt; 0.5) {
+</t>
+        </is>
+      </c>
       <c r="E249" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6416,10 +7656,15 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>249</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr"/>
+          <t>1064</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                unscaled = Math.floor(unscaled);
+</t>
+        </is>
+      </c>
       <c r="E250" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6440,10 +7685,15 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr"/>
+          <t>1067</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                if (Math.floor(unscaled) / 2.0 == Math.floor(Math
+</t>
+        </is>
+      </c>
       <c r="E251" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6464,10 +7714,15 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>251</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr"/>
+          <t>1069</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    unscaled = Math.floor(unscaled);
+</t>
+        </is>
+      </c>
       <c r="E252" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6488,10 +7743,15 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>252</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr"/>
+          <t>1071</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    unscaled = Math.ceil(unscaled);
+</t>
+        </is>
+      </c>
       <c r="E253" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6512,10 +7772,15 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>253</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr"/>
+          <t>1074</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            break;
+</t>
+        </is>
+      </c>
       <c r="E254" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6536,10 +7801,15 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr"/>
+          <t>1077</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            unscaled = nextAfter(unscaled, Double.POSITIVE_INFINITY);
+</t>
+        </is>
+      </c>
       <c r="E255" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6560,10 +7830,15 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>255</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr"/>
+          <t>1078</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double fraction = unscaled - Math.floor(unscaled);
+</t>
+        </is>
+      </c>
       <c r="E256" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6584,10 +7859,15 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>256</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr"/>
+          <t>1079</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (fraction &gt;= 0.5) {
+</t>
+        </is>
+      </c>
       <c r="E257" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6608,10 +7888,15 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>257</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr"/>
+          <t>1080</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                unscaled = Math.ceil(unscaled);
+</t>
+        </is>
+      </c>
       <c r="E258" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6632,10 +7917,15 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>258</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr"/>
+          <t>1082</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                unscaled = Math.floor(unscaled);
+</t>
+        </is>
+      </c>
       <c r="E259" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6656,10 +7946,15 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>259</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr"/>
+          <t>1084</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            break;
+</t>
+        </is>
+      </c>
       <c r="E260" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6680,10 +7975,15 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>260</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr"/>
+          <t>1087</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (unscaled != Math.floor(unscaled)) {
+</t>
+        </is>
+      </c>
       <c r="E261" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6704,10 +8004,15 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>261</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr"/>
+          <t>1088</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                throw new ArithmeticException("Inexact result from rounding");
+</t>
+        </is>
+      </c>
       <c r="E262" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6728,10 +8033,15 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>262</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr"/>
+          <t>1092</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            unscaled = Math.ceil(nextAfter(unscaled,  Double.POSITIVE_INFINITY));
+</t>
+        </is>
+      </c>
       <c r="E263" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6752,10 +8062,15 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>263</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr"/>
+          <t>1093</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            break;
+</t>
+        </is>
+      </c>
       <c r="E264" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6776,10 +8091,15 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>264</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr"/>
+          <t>1095</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new IllegalArgumentException("Invalid rounding method.");
+</t>
+        </is>
+      </c>
       <c r="E265" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6800,10 +8120,15 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>265</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr"/>
+          <t>1097</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return unscaled;
+</t>
+        </is>
+      </c>
       <c r="E266" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6824,10 +8149,15 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>266</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr"/>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (x == ZB) ? ZB : (x &gt; ZB) ? PB : NB;
+</t>
+        </is>
+      </c>
       <c r="E267" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6848,10 +8178,15 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>267</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr"/>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (Double.isNaN(x)) {
+</t>
+        </is>
+      </c>
       <c r="E268" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6872,10 +8207,15 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>268</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr"/>
+          <t>1128</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Double.NaN;
+</t>
+        </is>
+      </c>
       <c r="E269" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6896,10 +8236,15 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>269</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr"/>
+          <t>1130</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (x == 0.0) ? 0.0 : (x &gt; 0.0) ? 1.0 : -1.0;
+</t>
+        </is>
+      </c>
       <c r="E270" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6920,10 +8265,15 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>270</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr"/>
+          <t>1145</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (Float.isNaN(x)) {
+</t>
+        </is>
+      </c>
       <c r="E271" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6944,10 +8294,15 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>271</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr"/>
+          <t>1146</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Float.NaN;
+</t>
+        </is>
+      </c>
       <c r="E272" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6968,10 +8323,15 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>272</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr"/>
+          <t>1148</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (x == 0.0F) ? 0.0F : (x &gt; 0.0F) ? 1.0F : -1.0F;
+</t>
+        </is>
+      </c>
       <c r="E273" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6992,10 +8352,15 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>273</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr"/>
+          <t>1162</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (x == 0) ? 0 : (x &gt; 0) ? 1 : -1;
+</t>
+        </is>
+      </c>
       <c r="E274" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7016,10 +8381,15 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>274</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr"/>
+          <t>1176</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (x == 0L) ? 0L : (x &gt; 0L) ? 1L : -1L;
+</t>
+        </is>
+      </c>
       <c r="E275" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7040,10 +8410,15 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>275</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr"/>
+          <t>1191</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (x == ZS) ? ZS : (x &gt; ZS) ? PS : NS;
+</t>
+        </is>
+      </c>
       <c r="E276" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7064,10 +8439,15 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>276</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr"/>
+          <t>1202</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (Math.exp(x) - Math.exp(-x)) / 2.0;
+</t>
+        </is>
+      </c>
       <c r="E277" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7088,10 +8468,15 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr"/>
+          <t>1216</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        long s = (long)x - (long)y;
+</t>
+        </is>
+      </c>
       <c r="E278" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7112,10 +8497,15 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>278</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr"/>
+          <t>1217</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (s &lt; Integer.MIN_VALUE || s &gt; Integer.MAX_VALUE) {
+</t>
+        </is>
+      </c>
       <c r="E279" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7136,10 +8526,15 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>279</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr"/>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new ArithmeticException("overflow: subtract");
+</t>
+        </is>
+      </c>
       <c r="E280" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7160,10 +8555,15 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>280</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr"/>
+          <t>1220</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (int)s;
+</t>
+        </is>
+      </c>
       <c r="E281" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7184,10 +8584,15 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr"/>
+          <t>1235</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        String msg = "overflow: subtract";
+</t>
+        </is>
+      </c>
       <c r="E282" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7208,10 +8613,15 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>282</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr"/>
+          <t>1236</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (b == Long.MIN_VALUE) {
+</t>
+        </is>
+      </c>
       <c r="E283" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7232,10 +8642,15 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>283</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr"/>
+          <t>1237</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (a &lt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E284" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7256,10 +8671,15 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>284</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr"/>
+          <t>1238</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                ret = a - b;
+</t>
+        </is>
+      </c>
       <c r="E285" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7280,10 +8700,15 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>285</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr"/>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                throw new ArithmeticException(msg);
+</t>
+        </is>
+      </c>
       <c r="E286" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7304,10 +8729,15 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>286</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr"/>
+          <t>1244</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ret = addAndCheck(a, -b, msg);
+</t>
+        </is>
+      </c>
       <c r="E287" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7328,10 +8758,15 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>287</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr"/>
+          <t>1246</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return ret;
+</t>
+        </is>
+      </c>
       <c r="E288" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7352,10 +8787,15 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr"/>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        super();
+</t>
+        </is>
+      </c>
       <c r="E289" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7376,10 +8816,15 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>289</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr"/>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this.pattern   = null;
+</t>
+        </is>
+      </c>
       <c r="E290" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7400,10 +8845,15 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>290</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr"/>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this.arguments = new Object[0];
+</t>
+        </is>
+      </c>
       <c r="E291" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7424,10 +8874,15 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>291</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr"/>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E292" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7448,10 +8903,15 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>292</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr"/>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      super(buildMessage(Locale.US, pattern, arguments));
+</t>
+        </is>
+      </c>
       <c r="E293" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7472,10 +8932,15 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>293</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr"/>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      this.pattern   = pattern;
+</t>
+        </is>
+      </c>
       <c r="E294" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7496,10 +8961,15 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>294</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr"/>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      this.arguments = (arguments == null) ? new Object[0] : arguments.clone();
+</t>
+        </is>
+      </c>
       <c r="E295" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7520,10 +8990,15 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>295</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr"/>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E296" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7544,10 +9019,15 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>296</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr"/>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        super(rootCause);
+</t>
+        </is>
+      </c>
       <c r="E297" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7568,10 +9048,15 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>297</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr"/>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this.pattern   = getMessage();
+</t>
+        </is>
+      </c>
       <c r="E298" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7592,10 +9077,15 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>298</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr"/>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this.arguments = new Object[0];
+</t>
+        </is>
+      </c>
       <c r="E299" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7616,10 +9106,15 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>299</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr"/>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E300" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7640,10 +9135,15 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr"/>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      super(buildMessage(Locale.US, pattern, arguments), rootCause);
+</t>
+        </is>
+      </c>
       <c r="E301" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7664,10 +9164,15 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>301</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr"/>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      this.pattern   = pattern;
+</t>
+        </is>
+      </c>
       <c r="E302" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7688,10 +9193,15 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>302</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr"/>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      this.arguments = (arguments == null) ? new Object[0] : arguments.clone();
+</t>
+        </is>
+      </c>
       <c r="E303" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7712,10 +9222,15 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>303</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr"/>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E304" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7736,10 +9251,15 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr"/>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    private static ResourceBundle cachedResources = null;
+</t>
+        </is>
+      </c>
       <c r="E305" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7760,10 +9280,15 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>305</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr"/>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if ((cachedResources == null) || (! cachedResources.getLocale().equals(locale))) {
+</t>
+        </is>
+      </c>
       <c r="E306" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7784,10 +9309,15 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>306</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr"/>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                cachedResources =
+</t>
+        </is>
+      </c>
       <c r="E307" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7808,10 +9338,15 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>307</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr"/>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (cachedResources.getLocale().getLanguage().equals(locale.getLanguage())) {
+</t>
+        </is>
+      </c>
       <c r="E308" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7832,10 +9367,15 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>308</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr"/>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return cachedResources.getString(s);
+</t>
+        </is>
+      </c>
       <c r="E309" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7856,10 +9396,15 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>309</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr"/>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        }
+</t>
+        </is>
+      </c>
       <c r="E310" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7880,10 +9425,15 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>310</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr"/>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        } catch (MissingResourceException mre) {
+</t>
+        </is>
+      </c>
       <c r="E311" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7904,10 +9454,15 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>311</t>
-        </is>
-      </c>
-      <c r="D312" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return s;
+</t>
+        </is>
+      </c>
       <c r="E312" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7928,10 +9483,15 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>312</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr"/>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (pattern == null) ? "" : new MessageFormat(translate(pattern, locale), locale).format(arguments);        
+</t>
+        </is>
+      </c>
       <c r="E313" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7952,10 +9512,15 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>313</t>
-        </is>
-      </c>
-      <c r="D314" t="inlineStr"/>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return pattern;
+</t>
+        </is>
+      </c>
       <c r="E314" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -7976,10 +9541,15 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>314</t>
-        </is>
-      </c>
-      <c r="D315" t="inlineStr"/>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return arguments.clone();
+</t>
+        </is>
+      </c>
       <c r="E315" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8000,10 +9570,15 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="D316" t="inlineStr"/>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return buildMessage(locale, pattern, arguments);
+</t>
+        </is>
+      </c>
       <c r="E316" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8024,10 +9599,15 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="D317" t="inlineStr"/>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return getMessage(Locale.getDefault());
+</t>
+        </is>
+      </c>
       <c r="E317" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8048,10 +9628,15 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>317</t>
-        </is>
-      </c>
-      <c r="D318" t="inlineStr"/>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        printStackTrace(System.err);
+</t>
+        </is>
+      </c>
       <c r="E318" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8072,10 +9657,15 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>318</t>
-        </is>
-      </c>
-      <c r="D319" t="inlineStr"/>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E319" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8096,10 +9686,15 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>319</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr"/>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        synchronized (out) {
+</t>
+        </is>
+      </c>
       <c r="E320" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8120,10 +9715,15 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr"/>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            PrintWriter pw = new PrintWriter(out, false);
+</t>
+        </is>
+      </c>
       <c r="E321" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8144,10 +9744,15 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>321</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr"/>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            printStackTrace(pw);
+</t>
+        </is>
+      </c>
       <c r="E322" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8168,10 +9773,15 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>322</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr"/>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            pw.flush();
+</t>
+        </is>
+      </c>
       <c r="E323" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8192,10 +9802,15 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>323</t>
-        </is>
-      </c>
-      <c r="D324" t="inlineStr"/>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        }
+</t>
+        </is>
+      </c>
       <c r="E324" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8216,10 +9831,15 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>324</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr"/>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E325" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8240,10 +9860,15 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>325</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr"/>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        super("Convergence failed");
+</t>
+        </is>
+      </c>
       <c r="E326" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8264,10 +9889,15 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>326</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr"/>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E327" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8288,10 +9918,15 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>327</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr"/>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        super(pattern, arguments);
+</t>
+        </is>
+      </c>
       <c r="E328" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8312,10 +9947,15 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>328</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr"/>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E329" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8336,10 +9976,15 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr"/>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        super(cause);
+</t>
+        </is>
+      </c>
       <c r="E330" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8360,10 +10005,15 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>330</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr"/>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E331" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8384,10 +10034,15 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>331</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr"/>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        super(cause, pattern, arguments);
+</t>
+        </is>
+      </c>
       <c r="E332" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8408,10 +10063,15 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr"/>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E333" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8432,10 +10092,15 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>333</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr"/>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this(value, 1.0e-5, 100);
+</t>
+        </is>
+      </c>
       <c r="E334" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8456,10 +10121,15 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>334</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr"/>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E335" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8480,10 +10150,15 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>335</t>
-        </is>
-      </c>
-      <c r="D336" t="inlineStr"/>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this(value, epsilon, Integer.MAX_VALUE, maxIterations);
+</t>
+        </is>
+      </c>
       <c r="E336" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8504,10 +10179,15 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>336</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr"/>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E337" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8528,10 +10208,15 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>337</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr"/>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       this(value, 0, maxDenominator, 100);
+</t>
+        </is>
+      </c>
       <c r="E338" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8552,10 +10237,15 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>338</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr"/>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E339" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8576,10 +10266,15 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>339</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr"/>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    {
+</t>
+        </is>
+      </c>
       <c r="E340" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8600,10 +10295,15 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>340</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr"/>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        long overflow = Integer.MAX_VALUE;
+</t>
+        </is>
+      </c>
       <c r="E341" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8624,10 +10324,15 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>341</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr"/>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double r0 = value;
+</t>
+        </is>
+      </c>
       <c r="E342" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8648,10 +10353,15 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>342</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr"/>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        long a0 = (long)Math.floor(r0);
+</t>
+        </is>
+      </c>
       <c r="E343" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8672,10 +10382,15 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>343</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr"/>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (a0 &gt; overflow) {
+</t>
+        </is>
+      </c>
       <c r="E344" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8696,10 +10411,15 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>344</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr"/>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new FractionConversionException(value, a0, 1l);
+</t>
+        </is>
+      </c>
       <c r="E345" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8720,10 +10440,15 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>345</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr"/>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (Math.abs(a0 - value) &lt; epsilon) {
+</t>
+        </is>
+      </c>
       <c r="E346" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8744,10 +10469,15 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>346</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr"/>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            this.numerator = (int) a0;
+</t>
+        </is>
+      </c>
       <c r="E347" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8768,10 +10498,15 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>347</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr"/>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            this.denominator = 1;
+</t>
+        </is>
+      </c>
       <c r="E348" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8792,10 +10527,15 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>348</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr"/>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return;
+</t>
+        </is>
+      </c>
       <c r="E349" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8816,10 +10556,15 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>349</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr"/>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        long p0 = 1;
+</t>
+        </is>
+      </c>
       <c r="E350" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8840,10 +10585,15 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>350</t>
-        </is>
-      </c>
-      <c r="D351" t="inlineStr"/>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        long q0 = 0;
+</t>
+        </is>
+      </c>
       <c r="E351" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8864,10 +10614,15 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>351</t>
-        </is>
-      </c>
-      <c r="D352" t="inlineStr"/>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        long p1 = a0;
+</t>
+        </is>
+      </c>
       <c r="E352" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8888,10 +10643,15 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>352</t>
-        </is>
-      </c>
-      <c r="D353" t="inlineStr"/>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        long q1 = 1;
+</t>
+        </is>
+      </c>
       <c r="E353" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8912,10 +10672,15 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>353</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr"/>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        long p2 = 0;
+</t>
+        </is>
+      </c>
       <c r="E354" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8936,10 +10701,15 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>354</t>
-        </is>
-      </c>
-      <c r="D355" t="inlineStr"/>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        long q2 = 1;
+</t>
+        </is>
+      </c>
       <c r="E355" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8960,10 +10730,15 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>355</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr"/>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        int n = 0;
+</t>
+        </is>
+      </c>
       <c r="E356" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8984,10 +10759,15 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>356</t>
-        </is>
-      </c>
-      <c r="D357" t="inlineStr"/>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        boolean stop = false;
+</t>
+        </is>
+      </c>
       <c r="E357" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9008,10 +10788,15 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>357</t>
-        </is>
-      </c>
-      <c r="D358" t="inlineStr"/>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ++n;
+</t>
+        </is>
+      </c>
       <c r="E358" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9032,10 +10817,15 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>358</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr"/>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double r1 = 1.0 / (r0 - a0);
+</t>
+        </is>
+      </c>
       <c r="E359" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9056,10 +10846,15 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>359</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr"/>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            long a1 = (long)Math.floor(r1);
+</t>
+        </is>
+      </c>
       <c r="E360" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9080,10 +10875,15 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>360</t>
-        </is>
-      </c>
-      <c r="D361" t="inlineStr"/>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            p2 = (a1 * p1) + p0;
+</t>
+        </is>
+      </c>
       <c r="E361" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9104,10 +10904,15 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>361</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr"/>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            q2 = (a1 * q1) + q0;
+</t>
+        </is>
+      </c>
       <c r="E362" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9128,10 +10933,15 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>362</t>
-        </is>
-      </c>
-      <c r="D363" t="inlineStr"/>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if ((p2 &gt; overflow) || (q2 &gt; overflow)) {
+</t>
+        </is>
+      </c>
       <c r="E363" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9152,10 +10962,15 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>363</t>
-        </is>
-      </c>
-      <c r="D364" t="inlineStr"/>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                throw new FractionConversionException(value, p2, q2);
+</t>
+        </is>
+      </c>
       <c r="E364" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9176,10 +10991,15 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>364</t>
-        </is>
-      </c>
-      <c r="D365" t="inlineStr"/>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double convergent = (double)p2 / (double)q2;
+</t>
+        </is>
+      </c>
       <c r="E365" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9200,10 +11020,15 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>365</t>
-        </is>
-      </c>
-      <c r="D366" t="inlineStr"/>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (n &lt; maxIterations &amp;&amp; Math.abs(convergent - value) &gt; epsilon &amp;&amp; q2 &lt; maxDenominator) {
+</t>
+        </is>
+      </c>
       <c r="E366" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9224,10 +11049,15 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>366</t>
-        </is>
-      </c>
-      <c r="D367" t="inlineStr"/>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                p0 = p1;
+</t>
+        </is>
+      </c>
       <c r="E367" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9248,10 +11078,15 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>367</t>
-        </is>
-      </c>
-      <c r="D368" t="inlineStr"/>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                p1 = p2;
+</t>
+        </is>
+      </c>
       <c r="E368" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9272,10 +11107,15 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>368</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr"/>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                q0 = q1;
+</t>
+        </is>
+      </c>
       <c r="E369" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9296,10 +11136,15 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>369</t>
-        </is>
-      </c>
-      <c r="D370" t="inlineStr"/>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                q1 = q2;
+</t>
+        </is>
+      </c>
       <c r="E370" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9320,10 +11165,15 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>370</t>
-        </is>
-      </c>
-      <c r="D371" t="inlineStr"/>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                a0 = a1;
+</t>
+        </is>
+      </c>
       <c r="E371" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9344,10 +11194,15 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>371</t>
-        </is>
-      </c>
-      <c r="D372" t="inlineStr"/>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                r0 = r1;
+</t>
+        </is>
+      </c>
       <c r="E372" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9368,10 +11223,15 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="D373" t="inlineStr"/>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                stop = true;
+</t>
+        </is>
+      </c>
       <c r="E373" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9392,10 +11252,15 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>373</t>
-        </is>
-      </c>
-      <c r="D374" t="inlineStr"/>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        } while (!stop);
+</t>
+        </is>
+      </c>
       <c r="E374" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9416,10 +11281,15 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>374</t>
-        </is>
-      </c>
-      <c r="D375" t="inlineStr"/>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (n &gt;= maxIterations) {
+</t>
+        </is>
+      </c>
       <c r="E375" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9440,10 +11310,15 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="D376" t="inlineStr"/>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new FractionConversionException(value, maxIterations);
+</t>
+        </is>
+      </c>
       <c r="E376" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9464,10 +11339,15 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>376</t>
-        </is>
-      </c>
-      <c r="D377" t="inlineStr"/>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (q2 &lt; maxDenominator) {
+</t>
+        </is>
+      </c>
       <c r="E377" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9488,10 +11368,15 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>377</t>
-        </is>
-      </c>
-      <c r="D378" t="inlineStr"/>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            this.numerator = (int) p2;
+</t>
+        </is>
+      </c>
       <c r="E378" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9512,10 +11397,15 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>378</t>
-        </is>
-      </c>
-      <c r="D379" t="inlineStr"/>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            this.denominator = (int) q2;
+</t>
+        </is>
+      </c>
       <c r="E379" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9536,10 +11426,15 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>379</t>
-        </is>
-      </c>
-      <c r="D380" t="inlineStr"/>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            this.numerator = (int) p1;
+</t>
+        </is>
+      </c>
       <c r="E380" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9560,10 +11455,15 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>380</t>
-        </is>
-      </c>
-      <c r="D381" t="inlineStr"/>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            this.denominator = (int) q1;
+</t>
+        </is>
+      </c>
       <c r="E381" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9584,10 +11484,15 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>381</t>
-        </is>
-      </c>
-      <c r="D382" t="inlineStr"/>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E382" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9608,10 +11513,15 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>382</t>
-        </is>
-      </c>
-      <c r="D383" t="inlineStr"/>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw MathRuntimeException.createArithmeticException("zero denominator in fraction {0}/{1}",
+</t>
+        </is>
+      </c>
       <c r="E383" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9632,10 +11542,15 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>383</t>
-        </is>
-      </c>
-      <c r="D384" t="inlineStr"/>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (num == Integer.MIN_VALUE || den == Integer.MIN_VALUE) {
+</t>
+        </is>
+      </c>
       <c r="E384" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9656,10 +11571,15 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>384</t>
-        </is>
-      </c>
-      <c r="D385" t="inlineStr"/>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                throw MathRuntimeException.createArithmeticException("overflow in fraction {0}/{1}, cannot negate",
+</t>
+        </is>
+      </c>
       <c r="E385" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9680,10 +11600,15 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>385</t>
-        </is>
-      </c>
-      <c r="D386" t="inlineStr"/>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            num = -num;
+</t>
+        </is>
+      </c>
       <c r="E386" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9704,10 +11629,15 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>386</t>
-        </is>
-      </c>
-      <c r="D387" t="inlineStr"/>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            den = -den;
+</t>
+        </is>
+      </c>
       <c r="E387" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9728,10 +11658,15 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>387</t>
-        </is>
-      </c>
-      <c r="D388" t="inlineStr"/>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            num /= d;
+</t>
+        </is>
+      </c>
       <c r="E388" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9752,10 +11687,15 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>388</t>
-        </is>
-      </c>
-      <c r="D389" t="inlineStr"/>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            den /= d;
+</t>
+        </is>
+      </c>
       <c r="E389" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9776,10 +11716,15 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>389</t>
-        </is>
-      </c>
-      <c r="D390" t="inlineStr"/>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            num *= -1;
+</t>
+        </is>
+      </c>
       <c r="E390" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9800,10 +11745,15 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>390</t>
-        </is>
-      </c>
-      <c r="D391" t="inlineStr"/>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            den *= -1;
+</t>
+        </is>
+      </c>
       <c r="E391" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9824,10 +11774,15 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>391</t>
-        </is>
-      </c>
-      <c r="D392" t="inlineStr"/>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (numerator &gt;= 0) {
+</t>
+        </is>
+      </c>
       <c r="E392" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9848,10 +11803,15 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>392</t>
-        </is>
-      </c>
-      <c r="D393" t="inlineStr"/>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ret = this;
+</t>
+        </is>
+      </c>
       <c r="E393" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9872,10 +11832,15 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>393</t>
-        </is>
-      </c>
-      <c r="D394" t="inlineStr"/>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ret = negate();
+</t>
+        </is>
+      </c>
       <c r="E394" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9896,10 +11861,15 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>394</t>
-        </is>
-      </c>
-      <c r="D395" t="inlineStr"/>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return ret;        
+</t>
+        </is>
+      </c>
       <c r="E395" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9920,10 +11890,15 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>395</t>
-        </is>
-      </c>
-      <c r="D396" t="inlineStr"/>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double nOd = doubleValue();
+</t>
+        </is>
+      </c>
       <c r="E396" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9944,17 +11919,22 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>396</t>
-        </is>
-      </c>
-      <c r="D397" t="inlineStr"/>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double dOn = object.doubleValue();
+</t>
+        </is>
+      </c>
       <c r="E397" t="inlineStr">
         <is>
           <t>0.00000</t>
         </is>
       </c>
       <c r="F397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -9968,10 +11948,15 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>397</t>
-        </is>
-      </c>
-      <c r="D398" t="inlineStr"/>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (nOd &lt; dOn) ? -1 : ((nOd &gt; dOn) ? +1 : 0);
+</t>
+        </is>
+      </c>
       <c r="E398" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9992,10 +11977,15 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>398</t>
-        </is>
-      </c>
-      <c r="D399" t="inlineStr"/>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (this == other) { 
+</t>
+        </is>
+      </c>
       <c r="E399" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10016,10 +12006,15 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>399</t>
-        </is>
-      </c>
-      <c r="D400" t="inlineStr"/>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ret = true;
+</t>
+        </is>
+      </c>
       <c r="E400" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10040,10 +12035,15 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="D401" t="inlineStr"/>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        } else if (other == null) {
+</t>
+        </is>
+      </c>
       <c r="E401" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10064,10 +12064,15 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>401</t>
-        </is>
-      </c>
-      <c r="D402" t="inlineStr"/>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ret = false;
+</t>
+        </is>
+      </c>
       <c r="E402" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10088,10 +12093,15 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>402</t>
-        </is>
-      </c>
-      <c r="D403" t="inlineStr"/>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Fraction rhs = (Fraction)other;
+</t>
+        </is>
+      </c>
       <c r="E403" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10112,10 +12122,15 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>403</t>
-        </is>
-      </c>
-      <c r="D404" t="inlineStr"/>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                ret = (numerator == rhs.numerator) &amp;&amp;
+</t>
+        </is>
+      </c>
       <c r="E404" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10136,10 +12151,15 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>404</t>
-        </is>
-      </c>
-      <c r="D405" t="inlineStr"/>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            }
+</t>
+        </is>
+      </c>
       <c r="E405" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10160,10 +12180,15 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>405</t>
-        </is>
-      </c>
-      <c r="D406" t="inlineStr"/>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            } catch (ClassCastException ex) {
+</t>
+        </is>
+      </c>
       <c r="E406" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10184,10 +12209,15 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>406</t>
-        </is>
-      </c>
-      <c r="D407" t="inlineStr"/>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                ret = false;
+</t>
+        </is>
+      </c>
       <c r="E407" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10208,10 +12238,15 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>407</t>
-        </is>
-      </c>
-      <c r="D408" t="inlineStr"/>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return ret;
+</t>
+        </is>
+      </c>
       <c r="E408" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10232,10 +12267,15 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>408</t>
-        </is>
-      </c>
-      <c r="D409" t="inlineStr"/>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (float)doubleValue();
+</t>
+        </is>
+      </c>
       <c r="E409" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10256,10 +12296,15 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>409</t>
-        </is>
-      </c>
-      <c r="D410" t="inlineStr"/>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return denominator;
+</t>
+        </is>
+      </c>
       <c r="E410" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10280,10 +12325,15 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="D411" t="inlineStr"/>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return numerator;
+</t>
+        </is>
+      </c>
       <c r="E411" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10304,10 +12354,15 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>411</t>
-        </is>
-      </c>
-      <c r="D412" t="inlineStr"/>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return 37 * (37 * 17 + getNumerator()) + getDenominator();
+</t>
+        </is>
+      </c>
       <c r="E412" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10328,10 +12383,15 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>412</t>
-        </is>
-      </c>
-      <c r="D413" t="inlineStr"/>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (int)doubleValue();
+</t>
+        </is>
+      </c>
       <c r="E413" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10352,10 +12412,15 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>413</t>
-        </is>
-      </c>
-      <c r="D414" t="inlineStr"/>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (long)doubleValue();
+</t>
+        </is>
+      </c>
       <c r="E414" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10376,10 +12441,15 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="D415" t="inlineStr"/>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (numerator==Integer.MIN_VALUE) {
+</t>
+        </is>
+      </c>
       <c r="E415" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10400,10 +12470,15 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>415</t>
-        </is>
-      </c>
-      <c r="D416" t="inlineStr"/>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw MathRuntimeException.createArithmeticException("overflow in fraction {0}/{1}, cannot negate",
+</t>
+        </is>
+      </c>
       <c r="E416" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10424,10 +12499,15 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>416</t>
-        </is>
-      </c>
-      <c r="D417" t="inlineStr"/>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return new Fraction(-numerator, denominator);
+</t>
+        </is>
+      </c>
       <c r="E417" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10448,10 +12528,15 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>417</t>
-        </is>
-      </c>
-      <c r="D418" t="inlineStr"/>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return new Fraction(denominator, numerator);
+</t>
+        </is>
+      </c>
       <c r="E418" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10472,10 +12557,15 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>418</t>
-        </is>
-      </c>
-      <c r="D419" t="inlineStr"/>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return addSub(fraction, true /* add */);
+</t>
+        </is>
+      </c>
       <c r="E419" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10496,10 +12586,15 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>419</t>
-        </is>
-      </c>
-      <c r="D420" t="inlineStr"/>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return addSub(fraction, false /* subtract */);
+</t>
+        </is>
+      </c>
       <c r="E420" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10520,10 +12615,15 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>420</t>
-        </is>
-      </c>
-      <c r="D421" t="inlineStr"/>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (fraction == null) {
+</t>
+        </is>
+      </c>
       <c r="E421" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10544,10 +12644,15 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>421</t>
-        </is>
-      </c>
-      <c r="D422" t="inlineStr"/>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new IllegalArgumentException("The fraction must not be null");
+</t>
+        </is>
+      </c>
       <c r="E422" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10568,10 +12673,15 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>422</t>
-        </is>
-      </c>
-      <c r="D423" t="inlineStr"/>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (numerator == 0) {
+</t>
+        </is>
+      </c>
       <c r="E423" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10592,10 +12702,15 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>423</t>
-        </is>
-      </c>
-      <c r="D424" t="inlineStr"/>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return isAdd ? fraction : fraction.negate();
+</t>
+        </is>
+      </c>
       <c r="E424" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10616,10 +12731,15 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>424</t>
-        </is>
-      </c>
-      <c r="D425" t="inlineStr"/>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (fraction.numerator == 0) {
+</t>
+        </is>
+      </c>
       <c r="E425" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10640,10 +12760,15 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>425</t>
-        </is>
-      </c>
-      <c r="D426" t="inlineStr"/>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return this;
+</t>
+        </is>
+      </c>
       <c r="E426" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10664,10 +12789,15 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>426</t>
-        </is>
-      </c>
-      <c r="D427" t="inlineStr"/>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        int d1 = MathUtils.gcd(denominator, fraction.denominator);
+</t>
+        </is>
+      </c>
       <c r="E427" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10688,10 +12818,15 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>427</t>
-        </is>
-      </c>
-      <c r="D428" t="inlineStr"/>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (d1==1) {
+</t>
+        </is>
+      </c>
       <c r="E428" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10712,10 +12847,15 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>428</t>
-        </is>
-      </c>
-      <c r="D429" t="inlineStr"/>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            int uvp = MathUtils.mulAndCheck(numerator, fraction.denominator);
+</t>
+        </is>
+      </c>
       <c r="E429" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10736,10 +12876,15 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>429</t>
-        </is>
-      </c>
-      <c r="D430" t="inlineStr"/>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            int upv = MathUtils.mulAndCheck(fraction.numerator, denominator);
+</t>
+        </is>
+      </c>
       <c r="E430" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10760,10 +12905,15 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>430</t>
-        </is>
-      </c>
-      <c r="D431" t="inlineStr"/>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return new Fraction
+</t>
+        </is>
+      </c>
       <c r="E431" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10784,10 +12934,15 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>431</t>
-        </is>
-      </c>
-      <c r="D432" t="inlineStr"/>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        BigInteger uvp = BigInteger.valueOf(numerator)
+</t>
+        </is>
+      </c>
       <c r="E432" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10808,10 +12963,15 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>432</t>
-        </is>
-      </c>
-      <c r="D433" t="inlineStr"/>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        BigInteger upv = BigInteger.valueOf(fraction.numerator)
+</t>
+        </is>
+      </c>
       <c r="E433" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10832,10 +12992,15 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>433</t>
-        </is>
-      </c>
-      <c r="D434" t="inlineStr"/>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        BigInteger t = isAdd ? uvp.add(upv) : uvp.subtract(upv);
+</t>
+        </is>
+      </c>
       <c r="E434" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10856,10 +13021,15 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>434</t>
-        </is>
-      </c>
-      <c r="D435" t="inlineStr"/>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        int tmodd1 = t.mod(BigInteger.valueOf(d1)).intValue();
+</t>
+        </is>
+      </c>
       <c r="E435" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10880,10 +13050,15 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>435</t>
-        </is>
-      </c>
-      <c r="D436" t="inlineStr"/>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        int d2 = (tmodd1==0)?d1:MathUtils.gcd(tmodd1, d1);
+</t>
+        </is>
+      </c>
       <c r="E436" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10904,10 +13079,15 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>436</t>
-        </is>
-      </c>
-      <c r="D437" t="inlineStr"/>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        BigInteger w = t.divide(BigInteger.valueOf(d2));
+</t>
+        </is>
+      </c>
       <c r="E437" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10928,10 +13108,15 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>437</t>
-        </is>
-      </c>
-      <c r="D438" t="inlineStr"/>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (w.bitLength() &gt; 31) {
+</t>
+        </is>
+      </c>
       <c r="E438" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10952,10 +13137,15 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>438</t>
-        </is>
-      </c>
-      <c r="D439" t="inlineStr"/>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw MathRuntimeException.createArithmeticException("overflow, numerator too large after multiply: {0}",
+</t>
+        </is>
+      </c>
       <c r="E439" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -10976,10 +13166,15 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>439</t>
-        </is>
-      </c>
-      <c r="D440" t="inlineStr"/>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return new Fraction (w.intValue(), 
+</t>
+        </is>
+      </c>
       <c r="E440" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11000,10 +13195,15 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>440</t>
-        </is>
-      </c>
-      <c r="D441" t="inlineStr"/>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (fraction == null) {
+</t>
+        </is>
+      </c>
       <c r="E441" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11024,10 +13224,15 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>441</t>
-        </is>
-      </c>
-      <c r="D442" t="inlineStr"/>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new IllegalArgumentException("The fraction must not be null");
+</t>
+        </is>
+      </c>
       <c r="E442" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11048,10 +13253,15 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>442</t>
-        </is>
-      </c>
-      <c r="D443" t="inlineStr"/>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (numerator == 0 || fraction.numerator == 0) {
+</t>
+        </is>
+      </c>
       <c r="E443" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11072,10 +13282,15 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>443</t>
-        </is>
-      </c>
-      <c r="D444" t="inlineStr"/>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return ZERO;
+</t>
+        </is>
+      </c>
       <c r="E444" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11096,10 +13311,15 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>444</t>
-        </is>
-      </c>
-      <c r="D445" t="inlineStr"/>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        int d1 = MathUtils.gcd(numerator, fraction.denominator);
+</t>
+        </is>
+      </c>
       <c r="E445" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11120,10 +13340,15 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>445</t>
-        </is>
-      </c>
-      <c r="D446" t="inlineStr"/>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        int d2 = MathUtils.gcd(fraction.numerator, denominator);
+</t>
+        </is>
+      </c>
       <c r="E446" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11144,10 +13369,15 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>446</t>
-        </is>
-      </c>
-      <c r="D447" t="inlineStr"/>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return getReducedFraction
+</t>
+        </is>
+      </c>
       <c r="E447" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11168,10 +13398,15 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>447</t>
-        </is>
-      </c>
-      <c r="D448" t="inlineStr"/>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (fraction == null) {
+</t>
+        </is>
+      </c>
       <c r="E448" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11192,10 +13427,15 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>448</t>
-        </is>
-      </c>
-      <c r="D449" t="inlineStr"/>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new IllegalArgumentException("The fraction must not be null");
+</t>
+        </is>
+      </c>
       <c r="E449" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11216,10 +13456,15 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>449</t>
-        </is>
-      </c>
-      <c r="D450" t="inlineStr"/>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (fraction.numerator == 0) {
+</t>
+        </is>
+      </c>
       <c r="E450" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11240,10 +13485,15 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>450</t>
-        </is>
-      </c>
-      <c r="D451" t="inlineStr"/>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw MathRuntimeException.createArithmeticException(
+</t>
+        </is>
+      </c>
       <c r="E451" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11264,10 +13514,15 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="D452" t="inlineStr"/>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return multiply(fraction.reciprocal());
+</t>
+        </is>
+      </c>
       <c r="E452" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11288,10 +13543,15 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>452</t>
-        </is>
-      </c>
-      <c r="D453" t="inlineStr"/>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (denominator == 0) {
+</t>
+        </is>
+      </c>
       <c r="E453" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11312,10 +13572,15 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>453</t>
-        </is>
-      </c>
-      <c r="D454" t="inlineStr"/>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw MathRuntimeException.createArithmeticException(
+</t>
+        </is>
+      </c>
       <c r="E454" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11336,10 +13601,15 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>454</t>
-        </is>
-      </c>
-      <c r="D455" t="inlineStr"/>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (numerator==0) {
+</t>
+        </is>
+      </c>
       <c r="E455" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11360,10 +13630,15 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>455</t>
-        </is>
-      </c>
-      <c r="D456" t="inlineStr"/>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return ZERO; // normalize zero.
+</t>
+        </is>
+      </c>
       <c r="E456" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11384,10 +13659,15 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>456</t>
-        </is>
-      </c>
-      <c r="D457" t="inlineStr"/>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (denominator==Integer.MIN_VALUE &amp;&amp; (numerator&amp;1)==0) {
+</t>
+        </is>
+      </c>
       <c r="E457" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11408,10 +13688,15 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>457</t>
-        </is>
-      </c>
-      <c r="D458" t="inlineStr"/>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            numerator/=2; denominator/=2;
+</t>
+        </is>
+      </c>
       <c r="E458" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11432,10 +13717,15 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>458</t>
-        </is>
-      </c>
-      <c r="D459" t="inlineStr"/>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (denominator &lt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E459" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11456,10 +13746,15 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>459</t>
-        </is>
-      </c>
-      <c r="D460" t="inlineStr"/>
+          <t>534</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (numerator==Integer.MIN_VALUE ||
+</t>
+        </is>
+      </c>
       <c r="E460" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11480,10 +13775,15 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>460</t>
-        </is>
-      </c>
-      <c r="D461" t="inlineStr"/>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                throw MathRuntimeException.createArithmeticException(
+</t>
+        </is>
+      </c>
       <c r="E461" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11504,10 +13804,15 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>461</t>
-        </is>
-      </c>
-      <c r="D462" t="inlineStr"/>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            numerator = -numerator;
+</t>
+        </is>
+      </c>
       <c r="E462" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11528,10 +13833,15 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>462</t>
-        </is>
-      </c>
-      <c r="D463" t="inlineStr"/>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            denominator = -denominator;
+</t>
+        </is>
+      </c>
       <c r="E463" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11552,10 +13862,15 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>463</t>
-        </is>
-      </c>
-      <c r="D464" t="inlineStr"/>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        int gcd = MathUtils.gcd(numerator, denominator);
+</t>
+        </is>
+      </c>
       <c r="E464" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11576,10 +13891,15 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>464</t>
-        </is>
-      </c>
-      <c r="D465" t="inlineStr"/>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        numerator /= gcd;
+</t>
+        </is>
+      </c>
       <c r="E465" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11600,10 +13920,15 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>465</t>
-        </is>
-      </c>
-      <c r="D466" t="inlineStr"/>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        denominator /= gcd;
+</t>
+        </is>
+      </c>
       <c r="E466" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11624,10 +13949,15 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>466</t>
-        </is>
-      </c>
-      <c r="D467" t="inlineStr"/>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return new Fraction(numerator, denominator);
+</t>
+        </is>
+      </c>
       <c r="E467" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11648,10 +13978,15 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>467</t>
-        </is>
-      </c>
-      <c r="D468" t="inlineStr"/>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t xml:space="preserve">public class Fraction extends Number implements Comparable&lt;Fraction&gt; {
+</t>
+        </is>
+      </c>
       <c r="E468" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11672,10 +14007,15 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>468</t>
-        </is>
-      </c>
-      <c r="D469" t="inlineStr"/>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        super("Unable to convert {0} to fraction after {1} iterations", value, maxIterations);
+</t>
+        </is>
+      </c>
       <c r="E469" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11696,10 +14036,15 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>469</t>
-        </is>
-      </c>
-      <c r="D470" t="inlineStr"/>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E470" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11720,10 +14065,15 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>470</t>
-        </is>
-      </c>
-      <c r="D471" t="inlineStr"/>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        super("Overflow trying to convert {0} to fraction ({1}/{2})", value, p, q);
+</t>
+        </is>
+      </c>
       <c r="E471" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -11744,10 +14094,15 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>471</t>
-        </is>
-      </c>
-      <c r="D472" t="inlineStr"/>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E472" t="inlineStr">
         <is>
           <t>0.00000</t>
